--- a/tests/test_awards.xlsx
+++ b/tests/test_awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\smartgrids\energy2\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33C6A1-A2FA-4B87-AB71-D4F3F4E3B4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A2B0E-538D-4509-BA8B-BA7D1CBD519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-3490" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="awards_produced" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="21">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>altruist2</t>
-  </si>
-  <si>
-    <t>altruist1</t>
   </si>
   <si>
     <t>Time</t>
@@ -64,9 +58,6 @@
     <t>Free rider</t>
   </si>
   <si>
-    <t>free-rider</t>
-  </si>
-  <si>
     <t>External</t>
   </si>
   <si>
@@ -82,13 +73,34 @@
     <t>Date</t>
   </si>
   <si>
-    <t>local-3 (70WH)</t>
+    <t>Power altruist1 (W.)</t>
   </si>
   <si>
-    <t>local-2(20WH)</t>
+    <t>Power altruist2 (W.)</t>
   </si>
   <si>
-    <t>local-1(10WH)</t>
+    <t>Power free-rider (W.)</t>
+  </si>
+  <si>
+    <t>local-1</t>
+  </si>
+  <si>
+    <t>local-2</t>
+  </si>
+  <si>
+    <t>local-3</t>
+  </si>
+  <si>
+    <t>Capacity (WH)</t>
+  </si>
+  <si>
+    <t>power produced by local-1(Watts)</t>
+  </si>
+  <si>
+    <t>power produced by local-2(Watts)</t>
+  </si>
+  <si>
+    <t>power produced by local-3 (Watts)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>produced power </a:t>
+              <a:t>power produced by each prosumer</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -250,7 +262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>altruist1</c:v>
+                  <c:v>Power altruist1 (W.)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -472,7 +484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>altruist2</c:v>
+                  <c:v>Power altruist2 (W.)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,7 +706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>free-rider</c:v>
+                  <c:v>Power free-rider (W.)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1013,13 +1025,15 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1169,7 +1183,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Rate per kWh applied to energy supplies.</a:t>
+              <a:t>Price ($/kW) applied to energy supplies.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1226,7 +1240,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2852,7 +2866,23 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>produced power </a:t>
+              <a:t>power  &gt; 0 = power produced</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>power &lt; 0 = power requested</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2896,7 +2926,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3089188458772498E-2"/>
+          <c:y val="7.6397735314932769E-2"/>
+          <c:w val="0.95136224345112497"/>
+          <c:h val="0.86366751926709795"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2910,7 +2950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local-1(10WH)</c:v>
+                  <c:v>power produced by local-1(Watts)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3648,7 +3688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local-2(20WH)</c:v>
+                  <c:v>power produced by local-2(Watts)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4386,7 +4426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local-3 (70WH)</c:v>
+                  <c:v>power produced by local-3 (Watts)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7348,8 +7388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E3435B-3DAA-449C-9D38-FF858E55C430}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7366,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7908,27 +7948,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C08554-E9FB-4AFF-A0AD-89A3D7271ED9}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8819,10 +8859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E806D3-FDBA-46F0-BEC7-E0697330F16D}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191:E192"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8835,19 +8875,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8867,7 +8907,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8887,7 +8927,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8907,7 +8947,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8927,7 +8967,7 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8947,7 +8987,7 @@
         <v>1000</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8967,7 +9007,7 @@
         <v>1000</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8987,7 +9027,7 @@
         <v>1000</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9007,7 +9047,7 @@
         <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9027,7 +9067,7 @@
         <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9047,7 +9087,7 @@
         <v>1000</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9067,7 +9107,7 @@
         <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9087,7 +9127,7 @@
         <v>1000</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9107,7 +9147,7 @@
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9127,7 +9167,7 @@
         <v>1000</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -9147,7 +9187,7 @@
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -9167,7 +9207,7 @@
         <v>1000</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -9187,7 +9227,7 @@
         <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9207,7 +9247,7 @@
         <v>1000</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9227,7 +9267,7 @@
         <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -9247,7 +9287,7 @@
         <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -9267,7 +9307,7 @@
         <v>1000</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -9287,7 +9327,7 @@
         <v>1000</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -9307,7 +9347,7 @@
         <v>1000</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -9327,7 +9367,7 @@
         <v>1000</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -9347,7 +9387,7 @@
         <v>1000</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -9367,7 +9407,7 @@
         <v>1000</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -9387,7 +9427,7 @@
         <v>1000</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -9407,7 +9447,7 @@
         <v>1000</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -9427,7 +9467,7 @@
         <v>1000</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9447,7 +9487,7 @@
         <v>1000</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -9467,10 +9507,10 @@
         <v>1000</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>0.62275462962962957</v>
       </c>
@@ -9487,10 +9527,10 @@
         <v>1000</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0.62283564814814818</v>
       </c>
@@ -9507,10 +9547,10 @@
         <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>0.6235532407407407</v>
       </c>
@@ -9527,10 +9567,10 @@
         <v>1000</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>0.62357638888888889</v>
       </c>
@@ -9547,10 +9587,10 @@
         <v>1000</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>0.62366898148148153</v>
       </c>
@@ -9567,10 +9607,10 @@
         <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>0.62438657407407405</v>
       </c>
@@ -9587,10 +9627,10 @@
         <v>1000</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0.62446759259259255</v>
       </c>
@@ -9607,10 +9647,10 @@
         <v>1000</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>0.62449074074074074</v>
       </c>
@@ -9627,10 +9667,10 @@
         <v>1000</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>0.6252199074074074</v>
       </c>
@@ -9647,10 +9687,10 @@
         <v>1000</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>0.62525462962962963</v>
       </c>
@@ -9667,10 +9707,10 @@
         <v>1000</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0.62527777777777782</v>
       </c>
@@ -9687,10 +9727,10 @@
         <v>1000</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>0.62601851851851853</v>
       </c>
@@ -9707,10 +9747,10 @@
         <v>1000</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>0.62604166666666672</v>
       </c>
@@ -9727,10 +9767,10 @@
         <v>1000</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>0.62612268518518521</v>
       </c>
@@ -9747,10 +9787,10 @@
         <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>0.62685185185185188</v>
       </c>
@@ -9767,10 +9807,19 @@
         <v>1000</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>0.62688657407407411</v>
       </c>
@@ -9787,7 +9836,19 @@
         <v>1000</v>
       </c>
       <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
         <v>10</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -9807,7 +9868,7 @@
         <v>1000</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9827,7 +9888,7 @@
         <v>1000</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -9847,7 +9908,7 @@
         <v>1000</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -9867,7 +9928,7 @@
         <v>1000</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -9887,7 +9948,7 @@
         <v>1000</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -9907,7 +9968,7 @@
         <v>1000</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -9927,7 +9988,7 @@
         <v>1000</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -9947,7 +10008,7 @@
         <v>1000</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -9967,7 +10028,7 @@
         <v>1000</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -9987,7 +10048,7 @@
         <v>1000</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -10007,7 +10068,7 @@
         <v>1000</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -10027,7 +10088,7 @@
         <v>1000</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -10047,7 +10108,7 @@
         <v>1000</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -10067,7 +10128,7 @@
         <v>1000</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -10087,7 +10148,7 @@
         <v>1000</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -10107,7 +10168,7 @@
         <v>1000</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -10127,7 +10188,7 @@
         <v>1000</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -10147,7 +10208,7 @@
         <v>1000</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10167,7 +10228,7 @@
         <v>1000</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -10187,7 +10248,7 @@
         <v>1000</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -10207,7 +10268,7 @@
         <v>1000</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -10227,7 +10288,7 @@
         <v>1000</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -10247,7 +10308,7 @@
         <v>1000</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -10267,7 +10328,7 @@
         <v>1000</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -10287,7 +10348,7 @@
         <v>1000</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -10307,7 +10368,7 @@
         <v>1000</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -10327,7 +10388,7 @@
         <v>1000</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -10347,7 +10408,7 @@
         <v>1000</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10367,7 +10428,7 @@
         <v>1000</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -10387,7 +10448,7 @@
         <v>1000</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -10407,7 +10468,7 @@
         <v>1000</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -10427,7 +10488,7 @@
         <v>1000</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -10447,7 +10508,7 @@
         <v>1000</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -10467,7 +10528,7 @@
         <v>1000</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -10487,7 +10548,7 @@
         <v>1000</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -10507,7 +10568,7 @@
         <v>1000</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -10527,7 +10588,7 @@
         <v>1000</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -10547,7 +10608,7 @@
         <v>1000</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -10567,7 +10628,7 @@
         <v>1000</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -10587,7 +10648,7 @@
         <v>1000</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -10607,7 +10668,7 @@
         <v>1000</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -10627,7 +10688,7 @@
         <v>1000</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -10647,7 +10708,7 @@
         <v>1000</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -10667,7 +10728,7 @@
         <v>1000</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -10687,7 +10748,7 @@
         <v>1000</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -10707,7 +10768,7 @@
         <v>1000</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -10727,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -10747,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -10767,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -10787,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -10807,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -10827,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -10847,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -10867,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -10887,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -10907,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -10927,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -10947,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -10967,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -10987,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -11007,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -11027,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -11047,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -11067,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -11087,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -11107,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -11127,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -11147,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -11167,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -11187,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -11207,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -11227,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -11247,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -11267,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -11287,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -11307,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -11327,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -11347,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -11367,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -11387,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -11407,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -11427,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -11447,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -11467,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -11487,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -11507,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -11527,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -11547,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -11567,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -11587,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -11607,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -11627,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -11647,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -11667,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -11687,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -11707,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -11727,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -11747,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -11767,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -11787,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -11807,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -11827,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -11847,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -11867,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -11887,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -11907,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -11927,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -11947,7 +12008,7 @@
         <v>1000</v>
       </c>
       <c r="G156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -11967,7 +12028,7 @@
         <v>1000</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -11987,7 +12048,7 @@
         <v>1000</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -12007,7 +12068,7 @@
         <v>1000</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -12027,7 +12088,7 @@
         <v>1000</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -12047,7 +12108,7 @@
         <v>1000</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -12067,7 +12128,7 @@
         <v>1000</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -12087,7 +12148,7 @@
         <v>1000</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -12107,7 +12168,7 @@
         <v>1000</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -12127,7 +12188,7 @@
         <v>1000</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -12147,7 +12208,7 @@
         <v>1000</v>
       </c>
       <c r="G166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -12167,7 +12228,7 @@
         <v>1000</v>
       </c>
       <c r="G167" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -12187,7 +12248,7 @@
         <v>1000</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -12207,7 +12268,7 @@
         <v>1000</v>
       </c>
       <c r="G169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -12227,7 +12288,7 @@
         <v>1000</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -12247,7 +12308,7 @@
         <v>1000</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -12267,7 +12328,7 @@
         <v>1000</v>
       </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -12287,7 +12348,7 @@
         <v>1000</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -12307,7 +12368,7 @@
         <v>1000</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -12327,7 +12388,7 @@
         <v>1000</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -12347,7 +12408,7 @@
         <v>1000</v>
       </c>
       <c r="G176" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -12367,7 +12428,7 @@
         <v>1000</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -12387,7 +12448,7 @@
         <v>1000</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -12407,7 +12468,7 @@
         <v>1000</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -12427,7 +12488,7 @@
         <v>1000</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -12447,7 +12508,7 @@
         <v>1000</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -12467,7 +12528,7 @@
         <v>1000</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -12487,7 +12548,7 @@
         <v>1000</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -12507,7 +12568,7 @@
         <v>1000</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -12527,7 +12588,7 @@
         <v>1000</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -12547,7 +12608,7 @@
         <v>1000</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -12567,7 +12628,7 @@
         <v>1000</v>
       </c>
       <c r="G187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -12587,7 +12648,7 @@
         <v>1000</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -12607,7 +12668,7 @@
         <v>1000</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -12627,7 +12688,7 @@
         <v>1000</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -12647,7 +12708,7 @@
         <v>1000</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -12667,7 +12728,7 @@
         <v>1000</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
